--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Shank1-Sstr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Shank1-Sstr2.xlsx
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Sstr2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.04404166666666667</v>
+        <v>0.03082033333333333</v>
       </c>
       <c r="H2">
-        <v>0.132125</v>
+        <v>0.09246099999999999</v>
       </c>
       <c r="I2">
-        <v>0.03438641876346828</v>
+        <v>0.02169847518583489</v>
       </c>
       <c r="J2">
-        <v>0.03438641876346828</v>
+        <v>0.02169847518583489</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2097636666666667</v>
+        <v>0.193227</v>
       </c>
       <c r="N2">
-        <v>0.629291</v>
+        <v>0.579681</v>
       </c>
       <c r="O2">
-        <v>0.1278901181979287</v>
+        <v>0.1203927045071173</v>
       </c>
       <c r="P2">
-        <v>0.1278901181979287</v>
+        <v>0.1203927045071173</v>
       </c>
       <c r="Q2">
-        <v>0.009238341486111112</v>
+        <v>0.005955320548999999</v>
       </c>
       <c r="R2">
-        <v>0.083145073375</v>
+        <v>0.05359788494099999</v>
       </c>
       <c r="S2">
-        <v>0.004397683160063432</v>
+        <v>0.002612338111303237</v>
       </c>
       <c r="T2">
-        <v>0.004397683160063433</v>
+        <v>0.002612338111303237</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.04404166666666667</v>
+        <v>0.03082033333333333</v>
       </c>
       <c r="H3">
-        <v>0.132125</v>
+        <v>0.09246099999999999</v>
       </c>
       <c r="I3">
-        <v>0.03438641876346828</v>
+        <v>0.02169847518583489</v>
       </c>
       <c r="J3">
-        <v>0.03438641876346828</v>
+        <v>0.02169847518583489</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.280929</v>
       </c>
       <c r="O3">
-        <v>0.6667795941925309</v>
+        <v>0.6814091122631787</v>
       </c>
       <c r="P3">
-        <v>0.6667795941925311</v>
+        <v>0.6814091122631788</v>
       </c>
       <c r="Q3">
-        <v>0.04816586045833333</v>
+        <v>0.03370644180766666</v>
       </c>
       <c r="R3">
-        <v>0.433492744125</v>
+        <v>0.303357976269</v>
       </c>
       <c r="S3">
-        <v>0.02292816234883981</v>
+        <v>0.01478553871384436</v>
       </c>
       <c r="T3">
-        <v>0.02292816234883982</v>
+        <v>0.01478553871384437</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.04404166666666667</v>
+        <v>0.03082033333333333</v>
       </c>
       <c r="H4">
-        <v>0.132125</v>
+        <v>0.09246099999999999</v>
       </c>
       <c r="I4">
-        <v>0.03438641876346828</v>
+        <v>0.02169847518583489</v>
       </c>
       <c r="J4">
-        <v>0.03438641876346828</v>
+        <v>0.02169847518583489</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02033233333333333</v>
+        <v>0.2121483333333333</v>
       </c>
       <c r="N4">
-        <v>0.060997</v>
+        <v>0.6364449999999999</v>
       </c>
       <c r="O4">
-        <v>0.01239635326060448</v>
+        <v>0.132181898009478</v>
       </c>
       <c r="P4">
-        <v>0.01239635326060449</v>
+        <v>0.132181898009478</v>
       </c>
       <c r="Q4">
-        <v>0.0008954698472222223</v>
+        <v>0.006538482349444442</v>
       </c>
       <c r="R4">
-        <v>0.008059228625</v>
+        <v>0.05884634114499999</v>
       </c>
       <c r="S4">
-        <v>0.0004262661943590313</v>
+        <v>0.002868145633975217</v>
       </c>
       <c r="T4">
-        <v>0.0004262661943590313</v>
+        <v>0.002868145633975218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.04404166666666667</v>
+        <v>0.03082033333333333</v>
       </c>
       <c r="H5">
-        <v>0.132125</v>
+        <v>0.09246099999999999</v>
       </c>
       <c r="I5">
-        <v>0.03438641876346828</v>
+        <v>0.02169847518583489</v>
       </c>
       <c r="J5">
-        <v>0.03438641876346828</v>
+        <v>0.02169847518583489</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,60 +744,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2427203333333333</v>
+        <v>0.1059543333333333</v>
       </c>
       <c r="N5">
-        <v>0.7281610000000001</v>
+        <v>0.317863</v>
       </c>
       <c r="O5">
-        <v>0.1479833596176045</v>
+        <v>0.06601628522022597</v>
       </c>
       <c r="P5">
-        <v>0.1479833596176045</v>
+        <v>0.06601628522022598</v>
       </c>
       <c r="Q5">
-        <v>0.01068980801388889</v>
+        <v>0.003265547871444444</v>
       </c>
       <c r="R5">
-        <v>0.09620827212500001</v>
+        <v>0.029389930843</v>
       </c>
       <c r="S5">
-        <v>0.005088617773835871</v>
+        <v>0.001432452726712072</v>
       </c>
       <c r="T5">
-        <v>0.005088617773835871</v>
+        <v>0.001432452726712072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.04404166666666667</v>
+        <v>1.160257666666667</v>
       </c>
       <c r="H6">
-        <v>0.132125</v>
+        <v>3.480773</v>
       </c>
       <c r="I6">
-        <v>0.03438641876346828</v>
+        <v>0.8168575568945186</v>
       </c>
       <c r="J6">
-        <v>0.03438641876346828</v>
+        <v>0.8168575568945187</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07372733333333334</v>
+        <v>0.193227</v>
       </c>
       <c r="N6">
-        <v>0.221182</v>
+        <v>0.579681</v>
       </c>
       <c r="O6">
-        <v>0.0449505747313314</v>
+        <v>0.1203927045071173</v>
       </c>
       <c r="P6">
-        <v>0.04495057473133141</v>
+        <v>0.1203927045071173</v>
       </c>
       <c r="Q6">
-        <v>0.003247074638888889</v>
+        <v>0.224193108157</v>
       </c>
       <c r="R6">
-        <v>0.02922367175</v>
+        <v>2.017737973413</v>
       </c>
       <c r="S6">
-        <v>0.001545689286370137</v>
+        <v>0.0983436904716075</v>
       </c>
       <c r="T6">
-        <v>0.001545689286370138</v>
+        <v>0.09834369047160751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>3.480773</v>
       </c>
       <c r="I7">
-        <v>0.9058945543884487</v>
+        <v>0.8168575568945186</v>
       </c>
       <c r="J7">
-        <v>0.9058945543884488</v>
+        <v>0.8168575568945187</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2097636666666667</v>
+        <v>1.093643</v>
       </c>
       <c r="N7">
-        <v>0.629291</v>
+        <v>3.280929</v>
       </c>
       <c r="O7">
-        <v>0.1278901181979287</v>
+        <v>0.6814091122631787</v>
       </c>
       <c r="P7">
-        <v>0.1278901181979287</v>
+        <v>0.6814091122631788</v>
       </c>
       <c r="Q7">
-        <v>0.2433799024381111</v>
+        <v>1.268907675346333</v>
       </c>
       <c r="R7">
-        <v>2.190419121943</v>
+        <v>11.420169078117</v>
       </c>
       <c r="S7">
-        <v>0.1158549616355986</v>
+        <v>0.5566141826889629</v>
       </c>
       <c r="T7">
-        <v>0.1158549616355987</v>
+        <v>0.556614182688963</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>3.480773</v>
       </c>
       <c r="I8">
-        <v>0.9058945543884487</v>
+        <v>0.8168575568945186</v>
       </c>
       <c r="J8">
-        <v>0.9058945543884488</v>
+        <v>0.8168575568945187</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.093643</v>
+        <v>0.2121483333333333</v>
       </c>
       <c r="N8">
-        <v>3.280929</v>
+        <v>0.6364449999999999</v>
       </c>
       <c r="O8">
-        <v>0.6667795941925309</v>
+        <v>0.132181898009478</v>
       </c>
       <c r="P8">
-        <v>0.6667795941925311</v>
+        <v>0.132181898009478</v>
       </c>
       <c r="Q8">
-        <v>1.268907675346333</v>
+        <v>0.2461467302205555</v>
       </c>
       <c r="R8">
-        <v>11.420169078117</v>
+        <v>2.215320571985</v>
       </c>
       <c r="S8">
-        <v>0.6040320033563534</v>
+        <v>0.1079737822737026</v>
       </c>
       <c r="T8">
-        <v>0.6040320033563537</v>
+        <v>0.1079737822737027</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,54 +980,54 @@
         <v>3.480773</v>
       </c>
       <c r="I9">
-        <v>0.9058945543884487</v>
+        <v>0.8168575568945186</v>
       </c>
       <c r="J9">
-        <v>0.9058945543884488</v>
+        <v>0.8168575568945187</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02033233333333333</v>
+        <v>0.1059543333333333</v>
       </c>
       <c r="N9">
-        <v>0.060997</v>
+        <v>0.317863</v>
       </c>
       <c r="O9">
-        <v>0.01239635326060448</v>
+        <v>0.06601628522022597</v>
       </c>
       <c r="P9">
-        <v>0.01239635326060449</v>
+        <v>0.06601628522022598</v>
       </c>
       <c r="Q9">
-        <v>0.02359074563122222</v>
+        <v>0.1229343275665555</v>
       </c>
       <c r="R9">
-        <v>0.212316710681</v>
+        <v>1.106408948099</v>
       </c>
       <c r="S9">
-        <v>0.01122978891305709</v>
+        <v>0.0539259014602455</v>
       </c>
       <c r="T9">
-        <v>0.0112297889130571</v>
+        <v>0.05392590146024552</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.160257666666667</v>
+        <v>0.1200636666666667</v>
       </c>
       <c r="H10">
-        <v>3.480773</v>
+        <v>0.360191</v>
       </c>
       <c r="I10">
-        <v>0.9058945543884487</v>
+        <v>0.08452856313106129</v>
       </c>
       <c r="J10">
-        <v>0.9058945543884488</v>
+        <v>0.08452856313106129</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2427203333333333</v>
+        <v>0.193227</v>
       </c>
       <c r="N10">
-        <v>0.7281610000000001</v>
+        <v>0.579681</v>
       </c>
       <c r="O10">
-        <v>0.1479833596176045</v>
+        <v>0.1203927045071173</v>
       </c>
       <c r="P10">
-        <v>0.1479833596176045</v>
+        <v>0.1203927045071173</v>
       </c>
       <c r="Q10">
-        <v>0.2816181276058889</v>
+        <v>0.023199542119</v>
       </c>
       <c r="R10">
-        <v>2.534563148453</v>
+        <v>0.208795879071</v>
       </c>
       <c r="S10">
-        <v>0.1340573196176954</v>
+        <v>0.01017662232344907</v>
       </c>
       <c r="T10">
-        <v>0.1340573196176954</v>
+        <v>0.01017662232344907</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.160257666666667</v>
+        <v>0.1200636666666667</v>
       </c>
       <c r="H11">
-        <v>3.480773</v>
+        <v>0.360191</v>
       </c>
       <c r="I11">
-        <v>0.9058945543884487</v>
+        <v>0.08452856313106129</v>
       </c>
       <c r="J11">
-        <v>0.9058945543884488</v>
+        <v>0.08452856313106129</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.07372733333333334</v>
+        <v>1.093643</v>
       </c>
       <c r="N11">
-        <v>0.221182</v>
+        <v>3.280929</v>
       </c>
       <c r="O11">
-        <v>0.0449505747313314</v>
+        <v>0.6814091122631787</v>
       </c>
       <c r="P11">
-        <v>0.04495057473133141</v>
+        <v>0.6814091122631788</v>
       </c>
       <c r="Q11">
-        <v>0.08554270374288889</v>
+        <v>0.1313067886043333</v>
       </c>
       <c r="R11">
-        <v>0.7698843336860001</v>
+        <v>1.181761097439</v>
       </c>
       <c r="S11">
-        <v>0.04072048086574412</v>
+        <v>0.05759853316401853</v>
       </c>
       <c r="T11">
-        <v>0.04072048086574413</v>
+        <v>0.05759853316401854</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.04995499999999999</v>
+        <v>0.1200636666666667</v>
       </c>
       <c r="H12">
-        <v>0.149865</v>
+        <v>0.360191</v>
       </c>
       <c r="I12">
-        <v>0.03900337292705524</v>
+        <v>0.08452856313106129</v>
       </c>
       <c r="J12">
-        <v>0.03900337292705524</v>
+        <v>0.08452856313106129</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2097636666666667</v>
+        <v>0.2121483333333333</v>
       </c>
       <c r="N12">
-        <v>0.629291</v>
+        <v>0.6364449999999999</v>
       </c>
       <c r="O12">
-        <v>0.1278901181979287</v>
+        <v>0.132181898009478</v>
       </c>
       <c r="P12">
-        <v>0.1278901181979287</v>
+        <v>0.132181898009478</v>
       </c>
       <c r="Q12">
-        <v>0.01047874396833333</v>
+        <v>0.02547130677722222</v>
       </c>
       <c r="R12">
-        <v>0.09430869571499999</v>
+        <v>0.229241760995</v>
       </c>
       <c r="S12">
-        <v>0.004988145973758987</v>
+        <v>0.01117314591067767</v>
       </c>
       <c r="T12">
-        <v>0.004988145973758988</v>
+        <v>0.01117314591067767</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,14 +1207,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1222,60 +1222,60 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.04995499999999999</v>
+        <v>0.1200636666666667</v>
       </c>
       <c r="H13">
-        <v>0.149865</v>
+        <v>0.360191</v>
       </c>
       <c r="I13">
-        <v>0.03900337292705524</v>
+        <v>0.08452856313106129</v>
       </c>
       <c r="J13">
-        <v>0.03900337292705524</v>
+        <v>0.08452856313106129</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.093643</v>
+        <v>0.1059543333333333</v>
       </c>
       <c r="N13">
-        <v>3.280929</v>
+        <v>0.317863</v>
       </c>
       <c r="O13">
-        <v>0.6667795941925309</v>
+        <v>0.06601628522022597</v>
       </c>
       <c r="P13">
-        <v>0.6667795941925311</v>
+        <v>0.06601628522022598</v>
       </c>
       <c r="Q13">
-        <v>0.05463293606499998</v>
+        <v>0.01272126575922222</v>
       </c>
       <c r="R13">
-        <v>0.4916964245849999</v>
+        <v>0.114491391833</v>
       </c>
       <c r="S13">
-        <v>0.02600665317244184</v>
+        <v>0.005580261732916019</v>
       </c>
       <c r="T13">
-        <v>0.02600665317244185</v>
+        <v>0.00558026173291602</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04995499999999999</v>
+        <v>0.05123466666666667</v>
       </c>
       <c r="H14">
-        <v>0.149865</v>
+        <v>0.153704</v>
       </c>
       <c r="I14">
-        <v>0.03900337292705524</v>
+        <v>0.03607080206750486</v>
       </c>
       <c r="J14">
-        <v>0.03900337292705524</v>
+        <v>0.03607080206750486</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,42 +1302,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.02033233333333333</v>
+        <v>0.193227</v>
       </c>
       <c r="N14">
-        <v>0.060997</v>
+        <v>0.579681</v>
       </c>
       <c r="O14">
-        <v>0.01239635326060448</v>
+        <v>0.1203927045071173</v>
       </c>
       <c r="P14">
-        <v>0.01239635326060449</v>
+        <v>0.1203927045071173</v>
       </c>
       <c r="Q14">
-        <v>0.001015701711666666</v>
+        <v>0.009899920936000001</v>
       </c>
       <c r="R14">
-        <v>0.009141315404999999</v>
+        <v>0.089099288424</v>
       </c>
       <c r="S14">
-        <v>0.0004834995891588739</v>
+        <v>0.004342661414647828</v>
       </c>
       <c r="T14">
-        <v>0.0004834995891588739</v>
+        <v>0.004342661414647828</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,57 +1346,57 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04995499999999999</v>
+        <v>0.05123466666666667</v>
       </c>
       <c r="H15">
-        <v>0.149865</v>
+        <v>0.153704</v>
       </c>
       <c r="I15">
-        <v>0.03900337292705524</v>
+        <v>0.03607080206750486</v>
       </c>
       <c r="J15">
-        <v>0.03900337292705524</v>
+        <v>0.03607080206750486</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2427203333333333</v>
+        <v>1.093643</v>
       </c>
       <c r="N15">
-        <v>0.7281610000000001</v>
+        <v>3.280929</v>
       </c>
       <c r="O15">
-        <v>0.1479833596176045</v>
+        <v>0.6814091122631787</v>
       </c>
       <c r="P15">
-        <v>0.1479833596176045</v>
+        <v>0.6814091122631788</v>
       </c>
       <c r="Q15">
-        <v>0.01212509425166667</v>
+        <v>0.05603243455733333</v>
       </c>
       <c r="R15">
-        <v>0.109125848265</v>
+        <v>0.504291911016</v>
       </c>
       <c r="S15">
-        <v>0.005771850162163955</v>
+        <v>0.02457897321543932</v>
       </c>
       <c r="T15">
-        <v>0.005771850162163956</v>
+        <v>0.02457897321543932</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04995499999999999</v>
+        <v>0.05123466666666667</v>
       </c>
       <c r="H16">
-        <v>0.149865</v>
+        <v>0.153704</v>
       </c>
       <c r="I16">
-        <v>0.03900337292705524</v>
+        <v>0.03607080206750486</v>
       </c>
       <c r="J16">
-        <v>0.03900337292705524</v>
+        <v>0.03607080206750486</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.07372733333333334</v>
+        <v>0.2121483333333333</v>
       </c>
       <c r="N16">
-        <v>0.221182</v>
+        <v>0.6364449999999999</v>
       </c>
       <c r="O16">
-        <v>0.0449505747313314</v>
+        <v>0.132181898009478</v>
       </c>
       <c r="P16">
-        <v>0.04495057473133141</v>
+        <v>0.132181898009478</v>
       </c>
       <c r="Q16">
-        <v>0.003683048936666667</v>
+        <v>0.01086934914222222</v>
       </c>
       <c r="R16">
-        <v>0.03314744042999999</v>
+        <v>0.09782414228</v>
       </c>
       <c r="S16">
-        <v>0.001753224029531584</v>
+        <v>0.004767907080006997</v>
       </c>
       <c r="T16">
-        <v>0.001753224029531585</v>
+        <v>0.004767907080006998</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02653233333333333</v>
+        <v>0.05123466666666667</v>
       </c>
       <c r="H17">
-        <v>0.079597</v>
+        <v>0.153704</v>
       </c>
       <c r="I17">
-        <v>0.0207156539210277</v>
+        <v>0.03607080206750486</v>
       </c>
       <c r="J17">
-        <v>0.0207156539210277</v>
+        <v>0.03607080206750486</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,42 +1488,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2097636666666667</v>
+        <v>0.1059543333333333</v>
       </c>
       <c r="N17">
-        <v>0.629291</v>
+        <v>0.317863</v>
       </c>
       <c r="O17">
-        <v>0.1278901181979287</v>
+        <v>0.06601628522022597</v>
       </c>
       <c r="P17">
-        <v>0.1278901181979287</v>
+        <v>0.06601628522022598</v>
       </c>
       <c r="Q17">
-        <v>0.005565519525222223</v>
+        <v>0.005428534950222223</v>
       </c>
       <c r="R17">
-        <v>0.050089675727</v>
+        <v>0.04885681455200001</v>
       </c>
       <c r="S17">
-        <v>0.002649327428507618</v>
+        <v>0.002381260357410717</v>
       </c>
       <c r="T17">
-        <v>0.002649327428507618</v>
+        <v>0.002381260357410718</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1532,60 +1532,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.02653233333333333</v>
+        <v>0.05801533333333333</v>
       </c>
       <c r="H18">
-        <v>0.079597</v>
+        <v>0.174046</v>
       </c>
       <c r="I18">
-        <v>0.0207156539210277</v>
+        <v>0.04084460272108045</v>
       </c>
       <c r="J18">
-        <v>0.0207156539210277</v>
+        <v>0.04084460272108045</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>1.093643</v>
+        <v>0.193227</v>
       </c>
       <c r="N18">
-        <v>3.280929</v>
+        <v>0.579681</v>
       </c>
       <c r="O18">
-        <v>0.6667795941925309</v>
+        <v>0.1203927045071173</v>
       </c>
       <c r="P18">
-        <v>0.6667795941925311</v>
+        <v>0.1203927045071173</v>
       </c>
       <c r="Q18">
-        <v>0.02901690062366667</v>
+        <v>0.011210128814</v>
       </c>
       <c r="R18">
-        <v>0.261152105613</v>
+        <v>0.100891159326</v>
       </c>
       <c r="S18">
-        <v>0.01381277531489576</v>
+        <v>0.004917392186109637</v>
       </c>
       <c r="T18">
-        <v>0.01381277531489577</v>
+        <v>0.004917392186109637</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1594,60 +1594,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.02653233333333333</v>
+        <v>0.05801533333333333</v>
       </c>
       <c r="H19">
-        <v>0.079597</v>
+        <v>0.174046</v>
       </c>
       <c r="I19">
-        <v>0.0207156539210277</v>
+        <v>0.04084460272108045</v>
       </c>
       <c r="J19">
-        <v>0.0207156539210277</v>
+        <v>0.04084460272108045</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.02033233333333333</v>
+        <v>1.093643</v>
       </c>
       <c r="N19">
-        <v>0.060997</v>
+        <v>3.280929</v>
       </c>
       <c r="O19">
-        <v>0.01239635326060448</v>
+        <v>0.6814091122631787</v>
       </c>
       <c r="P19">
-        <v>0.01239635326060449</v>
+        <v>0.6814091122631788</v>
       </c>
       <c r="Q19">
-        <v>0.0005394642454444445</v>
+        <v>0.06344806319266666</v>
       </c>
       <c r="R19">
-        <v>0.004855178209</v>
+        <v>0.5710325687339999</v>
       </c>
       <c r="S19">
-        <v>0.0002567985640294859</v>
+        <v>0.02783188448091364</v>
       </c>
       <c r="T19">
-        <v>0.0002567985640294859</v>
+        <v>0.02783188448091365</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1656,60 +1656,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.02653233333333333</v>
+        <v>0.05801533333333333</v>
       </c>
       <c r="H20">
-        <v>0.079597</v>
+        <v>0.174046</v>
       </c>
       <c r="I20">
-        <v>0.0207156539210277</v>
+        <v>0.04084460272108045</v>
       </c>
       <c r="J20">
-        <v>0.0207156539210277</v>
+        <v>0.04084460272108045</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2427203333333333</v>
+        <v>0.2121483333333333</v>
       </c>
       <c r="N20">
-        <v>0.7281610000000001</v>
+        <v>0.6364449999999999</v>
       </c>
       <c r="O20">
-        <v>0.1479833596176045</v>
+        <v>0.132181898009478</v>
       </c>
       <c r="P20">
-        <v>0.1479833596176045</v>
+        <v>0.132181898009478</v>
       </c>
       <c r="Q20">
-        <v>0.006439936790777779</v>
+        <v>0.01230785627444444</v>
       </c>
       <c r="R20">
-        <v>0.05795943111700001</v>
+        <v>0.11077070647</v>
       </c>
       <c r="S20">
-        <v>0.003065572063909281</v>
+        <v>0.005398917111115505</v>
       </c>
       <c r="T20">
-        <v>0.003065572063909281</v>
+        <v>0.005398917111115506</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,46 +1718,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.02653233333333333</v>
+        <v>0.05801533333333333</v>
       </c>
       <c r="H21">
-        <v>0.079597</v>
+        <v>0.174046</v>
       </c>
       <c r="I21">
-        <v>0.0207156539210277</v>
+        <v>0.04084460272108045</v>
       </c>
       <c r="J21">
-        <v>0.0207156539210277</v>
+        <v>0.04084460272108045</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.07372733333333334</v>
+        <v>0.1059543333333333</v>
       </c>
       <c r="N21">
-        <v>0.221182</v>
+        <v>0.317863</v>
       </c>
       <c r="O21">
-        <v>0.0449505747313314</v>
+        <v>0.06601628522022597</v>
       </c>
       <c r="P21">
-        <v>0.04495057473133141</v>
+        <v>0.06601628522022598</v>
       </c>
       <c r="Q21">
-        <v>0.001956158183777778</v>
+        <v>0.006146975966444443</v>
       </c>
       <c r="R21">
-        <v>0.017605423654</v>
+        <v>0.05532278369799999</v>
       </c>
       <c r="S21">
-        <v>0.000931180549685554</v>
+        <v>0.002696408942941665</v>
       </c>
       <c r="T21">
-        <v>0.000931180549685554</v>
+        <v>0.002696408942941666</v>
       </c>
     </row>
   </sheetData>
